--- a/data/zenodo_ivan/import/CHE_imp_coal.xlsx
+++ b/data/zenodo_ivan/import/CHE_imp_coal.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C854C5-1E70-1A4D-B934-A028129CA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="-2860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,7 +34,7 @@
     <t>CHE_imp_coal.xlsx</t>
   </si>
   <si>
-    <t>2023-01-05 18:35:30</t>
+    <t>2023-01-06 14:43:57</t>
   </si>
   <si>
     <t>Ivan Ruiz Manuel</t>
@@ -214,8 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,11 +284,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -324,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +370,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +422,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,14 +615,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -654,7 +709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -671,7 +726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -688,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -705,7 +760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -722,7 +777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -739,7 +794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -756,7 +811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -773,7 +828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -790,7 +845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -807,7 +862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -824,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -841,7 +896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -858,7 +913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -875,7 +930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -892,7 +947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -909,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -926,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -943,7 +998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -960,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -977,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1062,7 +1117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1181,7 +1236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1232,7 +1287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1249,7 +1304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1351,7 +1406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1419,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1470,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1555,7 +1610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -1729,7 +1784,7 @@
         <v>1992</v>
       </c>
       <c r="H68">
-        <v>90.09999999999999</v>
+        <v>90.1</v>
       </c>
       <c r="I68" t="s">
         <v>34</v>
@@ -1744,7 +1799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -1773,7 +1828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +1842,7 @@
         <v>1994</v>
       </c>
       <c r="H70">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I70" t="s">
         <v>36</v>
@@ -1802,7 +1857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +1886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1860,7 +1915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1918,7 +1973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -1947,7 +2002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -1961,7 +2016,7 @@
         <v>2000</v>
       </c>
       <c r="H76">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="I76" t="s">
         <v>42</v>
@@ -1976,7 +2031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -1990,7 +2045,7 @@
         <v>2001</v>
       </c>
       <c r="H77">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="I77" t="s">
         <v>43</v>
@@ -2005,7 +2060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2019,7 +2074,7 @@
         <v>2002</v>
       </c>
       <c r="H78">
-        <v>88.09999999999999</v>
+        <v>88.1</v>
       </c>
       <c r="I78" t="s">
         <v>44</v>
@@ -2034,7 +2089,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2077,7 +2132,7 @@
         <v>2004</v>
       </c>
       <c r="H80">
-        <v>157.3</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
@@ -2092,7 +2147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2161,7 @@
         <v>2005</v>
       </c>
       <c r="H81">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="I81" t="s">
         <v>47</v>
@@ -2121,7 +2176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -2179,7 +2234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2208,7 +2263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -2251,7 +2306,7 @@
         <v>2010</v>
       </c>
       <c r="H86">
-        <v>258.9</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="I86" t="s">
         <v>52</v>
@@ -2266,7 +2321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2382,7 +2437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -2411,7 +2466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2527,7 +2582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2578,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -2595,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -2612,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -2646,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -2663,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -2697,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2714,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2731,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -2748,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -2765,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -2816,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -2850,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -2867,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -2884,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -2901,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -2918,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -2935,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -2952,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -2969,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -2986,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3003,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -3020,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -3037,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -3054,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3071,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -3088,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -3105,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -3122,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -3139,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3156,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -3190,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3224,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -3241,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -3258,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -3275,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -3292,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -3309,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -3326,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -3343,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3360,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -3394,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -3411,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3445,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -3462,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -3479,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -3496,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -3513,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -3530,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -3547,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -3564,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -3581,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -3598,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -3615,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -3632,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -3649,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3666,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -3683,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -3700,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -3717,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -3734,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -3751,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3768,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -3785,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -3802,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -3819,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -3836,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -3853,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -3887,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -3904,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -3921,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -3938,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -3955,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -3972,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -3989,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -4006,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -4023,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -4040,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -4057,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -4074,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -4091,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -4108,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -4125,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -4142,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -4159,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -4176,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -4193,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -4210,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -4227,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -4244,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4261,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -4278,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -4295,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -4312,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -4329,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -4346,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -4363,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -4380,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -4397,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -4414,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -4431,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -4448,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -4465,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -4482,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -4499,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4516,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -4533,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -4550,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -4567,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -4584,7 +4639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -4601,7 +4656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -4618,7 +4673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -4635,7 +4690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -4652,7 +4707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -4669,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -4686,7 +4741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -4703,7 +4758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -4720,7 +4775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -4737,7 +4792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -4754,7 +4809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -4771,7 +4826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -4788,7 +4843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -4805,7 +4860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -4822,7 +4877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -4839,7 +4894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4856,7 +4911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -4873,7 +4928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -4890,7 +4945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -4907,7 +4962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -4924,7 +4979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -4941,7 +4996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -4958,7 +5013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -4975,7 +5030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -4992,7 +5047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -5009,7 +5064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5026,7 +5081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -5043,7 +5098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -5060,7 +5115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -5077,7 +5132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -5094,7 +5149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -5111,7 +5166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -5128,7 +5183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -5145,7 +5200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -5162,7 +5217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -5179,7 +5234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -5196,7 +5251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -5213,7 +5268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -5247,7 +5302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -5264,7 +5319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -5281,7 +5336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -5298,7 +5353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -5315,7 +5370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -5332,7 +5387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -5349,7 +5404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -5366,7 +5421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -5383,7 +5438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -5400,7 +5455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -5417,7 +5472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>19</v>
       </c>
@@ -5434,7 +5489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -5451,7 +5506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -5468,7 +5523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -5485,7 +5540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -5502,7 +5557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -5519,7 +5574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -5536,7 +5591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5553,7 +5608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -5570,7 +5625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>

--- a/data/zenodo_ivan/import/CHE_imp_coal.xlsx
+++ b/data/zenodo_ivan/import/CHE_imp_coal.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C854C5-1E70-1A4D-B934-A028129CA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808935E-D660-284B-B87D-84AEED28D8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-2860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="102">
   <si>
     <t>Name:</t>
   </si>
@@ -112,9 +122,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>TODO: find</t>
-  </si>
-  <si>
     <t>coal</t>
   </si>
   <si>
@@ -215,13 +222,127 @@
   </si>
   <si>
     <t>Steam Coal Prices for Industry in US Dollars/toe</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistique globale de l'énergie 2021 </t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2022</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2023</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2024</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2025</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2026</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2027</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2028</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2029</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2030</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2031</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2032</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2033</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2034</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2035</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2036</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2037</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2038</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2039</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2040</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2041</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2042</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2043</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2044</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2045</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2046</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2047</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2048</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2049</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie 2050</t>
+  </si>
+  <si>
+    <t>https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/</t>
+  </si>
+  <si>
+    <t>T06, D column</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>Maximum historical import * 1.3</t>
+  </si>
+  <si>
+    <t>TODO: consider finding a value for coal import emissions. Table B2 in https://www.nrel.gov/docs/fy99osti/25119.pdf is a potential source</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +354,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,16 +405,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -296,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -618,8 +756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,14 +838,29 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="F6">
         <v>1990</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
+      <c r="H6">
+        <v>14380</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -716,14 +870,29 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
         <v>1991</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
+      <c r="H7">
+        <v>11480</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -733,14 +902,29 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="F8">
         <v>1992</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
+      <c r="H8">
+        <v>5350</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -750,14 +934,29 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="F9">
         <v>1993</v>
       </c>
-      <c r="H9" t="s">
-        <v>30</v>
+      <c r="H9">
+        <v>4350</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -767,14 +966,29 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="F10">
         <v>1994</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
+      <c r="H10">
+        <v>4520</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -784,14 +998,29 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="F11">
         <v>1995</v>
       </c>
-      <c r="H11" t="s">
-        <v>30</v>
+      <c r="H11">
+        <v>6780</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -801,14 +1030,29 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="F12">
         <v>1996</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
+      <c r="H12">
+        <v>4560</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -818,14 +1062,29 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="F13">
         <v>1997</v>
       </c>
-      <c r="H13" t="s">
-        <v>30</v>
+      <c r="H13">
+        <v>3110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -835,14 +1094,29 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="F14">
         <v>1998</v>
       </c>
-      <c r="H14" t="s">
-        <v>30</v>
+      <c r="H14">
+        <v>2690</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -852,14 +1126,29 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="F15">
         <v>1999</v>
       </c>
-      <c r="H15" t="s">
-        <v>30</v>
+      <c r="H15">
+        <v>2570</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -869,22 +1158,40 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="F16">
         <v>2000</v>
       </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>7830</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -892,16 +1199,31 @@
       <c r="F17">
         <v>2001</v>
       </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>5330</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -909,16 +1231,31 @@
       <c r="F18">
         <v>2002</v>
       </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>4300</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -926,16 +1263,31 @@
       <c r="F19">
         <v>2003</v>
       </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>3110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -943,16 +1295,31 @@
       <c r="F20">
         <v>2004</v>
       </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>5400</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -960,16 +1327,31 @@
       <c r="F21">
         <v>2005</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>4110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -977,16 +1359,31 @@
       <c r="F22">
         <v>2006</v>
       </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>6720</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -994,16 +1391,31 @@
       <c r="F23">
         <v>2007</v>
       </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>8460</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1011,16 +1423,31 @@
       <c r="F24">
         <v>2008</v>
       </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>6490</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1028,16 +1455,31 @@
       <c r="F25">
         <v>2009</v>
       </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>6810</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1045,16 +1487,31 @@
       <c r="F26">
         <v>2010</v>
       </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>5380</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1062,16 +1519,31 @@
       <c r="F27">
         <v>2011</v>
       </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>4750</v>
+      </c>
+      <c r="I27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1079,16 +1551,31 @@
       <c r="F28">
         <v>2012</v>
       </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>5390</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1096,16 +1583,31 @@
       <c r="F29">
         <v>2013</v>
       </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>5700</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1113,16 +1615,31 @@
       <c r="F30">
         <v>2014</v>
       </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>4640</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1130,16 +1647,31 @@
       <c r="F31">
         <v>2015</v>
       </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>5440</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1147,16 +1679,31 @@
       <c r="F32">
         <v>2016</v>
       </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>4760</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1164,16 +1711,31 @@
       <c r="F33">
         <v>2017</v>
       </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>4590</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1181,16 +1743,31 @@
       <c r="F34">
         <v>2018</v>
       </c>
-      <c r="H34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>3390</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1198,16 +1775,31 @@
       <c r="F35">
         <v>2019</v>
       </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>3360</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1215,16 +1807,22 @@
       <c r="F36">
         <v>1990</v>
       </c>
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1232,16 +1830,22 @@
       <c r="F37">
         <v>1991</v>
       </c>
-      <c r="H37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1249,16 +1853,22 @@
       <c r="F38">
         <v>1992</v>
       </c>
-      <c r="H38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1266,16 +1876,22 @@
       <c r="F39">
         <v>1993</v>
       </c>
-      <c r="H39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -1283,16 +1899,22 @@
       <c r="F40">
         <v>1994</v>
       </c>
-      <c r="H40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1300,16 +1922,22 @@
       <c r="F41">
         <v>1995</v>
       </c>
-      <c r="H41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -1317,16 +1945,22 @@
       <c r="F42">
         <v>1996</v>
       </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -1334,16 +1968,22 @@
       <c r="F43">
         <v>1997</v>
       </c>
-      <c r="H43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1351,16 +1991,22 @@
       <c r="F44">
         <v>1998</v>
       </c>
-      <c r="H44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1368,16 +2014,22 @@
       <c r="F45">
         <v>1999</v>
       </c>
-      <c r="H45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1385,16 +2037,22 @@
       <c r="F46">
         <v>2000</v>
       </c>
-      <c r="H46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -1402,16 +2060,22 @@
       <c r="F47">
         <v>2001</v>
       </c>
-      <c r="H47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -1419,16 +2083,22 @@
       <c r="F48">
         <v>2002</v>
       </c>
-      <c r="H48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -1436,16 +2106,22 @@
       <c r="F49">
         <v>2003</v>
       </c>
-      <c r="H49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -1453,16 +2129,22 @@
       <c r="F50">
         <v>2004</v>
       </c>
-      <c r="H50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -1470,16 +2152,22 @@
       <c r="F51">
         <v>2005</v>
       </c>
-      <c r="H51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -1487,16 +2175,22 @@
       <c r="F52">
         <v>2006</v>
       </c>
-      <c r="H52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -1504,16 +2198,22 @@
       <c r="F53">
         <v>2007</v>
       </c>
-      <c r="H53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -1521,16 +2221,22 @@
       <c r="F54">
         <v>2008</v>
       </c>
-      <c r="H54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -1538,16 +2244,22 @@
       <c r="F55">
         <v>2009</v>
       </c>
-      <c r="H55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -1555,16 +2267,22 @@
       <c r="F56">
         <v>2010</v>
       </c>
-      <c r="H56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1572,16 +2290,22 @@
       <c r="F57">
         <v>2011</v>
       </c>
-      <c r="H57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -1589,16 +2313,22 @@
       <c r="F58">
         <v>2012</v>
       </c>
-      <c r="H58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -1606,16 +2336,22 @@
       <c r="F59">
         <v>2013</v>
       </c>
-      <c r="H59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -1623,16 +2359,22 @@
       <c r="F60">
         <v>2014</v>
       </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -1640,16 +2382,22 @@
       <c r="F61">
         <v>2015</v>
       </c>
-      <c r="H61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -1657,16 +2405,22 @@
       <c r="F62">
         <v>2016</v>
       </c>
-      <c r="H62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -1674,16 +2428,22 @@
       <c r="F63">
         <v>2017</v>
       </c>
-      <c r="H63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -1691,8 +2451,11 @@
       <c r="F64">
         <v>2018</v>
       </c>
-      <c r="H64" t="s">
-        <v>30</v>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -1702,14 +2465,20 @@
       <c r="B65" t="s">
         <v>20</v>
       </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
       <c r="F65">
         <v>2019</v>
       </c>
-      <c r="H65" t="s">
-        <v>30</v>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -1719,6 +2488,9 @@
       <c r="B66" t="s">
         <v>20</v>
       </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
       <c r="D66" t="s">
         <v>23</v>
       </c>
@@ -1729,16 +2501,16 @@
         <v>103.5</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" t="s">
         <v>62</v>
       </c>
-      <c r="K66" t="s">
+      <c r="M66" t="s">
         <v>63</v>
-      </c>
-      <c r="M66" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -1748,6 +2520,9 @@
       <c r="B67" t="s">
         <v>20</v>
       </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
       <c r="D67" t="s">
         <v>23</v>
       </c>
@@ -1758,16 +2533,16 @@
         <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J67" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" t="s">
         <v>62</v>
       </c>
-      <c r="K67" t="s">
+      <c r="M67" t="s">
         <v>63</v>
-      </c>
-      <c r="M67" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -1777,6 +2552,9 @@
       <c r="B68" t="s">
         <v>20</v>
       </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
       <c r="D68" t="s">
         <v>23</v>
       </c>
@@ -1787,16 +2565,16 @@
         <v>90.1</v>
       </c>
       <c r="I68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" t="s">
         <v>62</v>
       </c>
-      <c r="K68" t="s">
+      <c r="M68" t="s">
         <v>63</v>
-      </c>
-      <c r="M68" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -1806,6 +2584,9 @@
       <c r="B69" t="s">
         <v>20</v>
       </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
       <c r="D69" t="s">
         <v>23</v>
       </c>
@@ -1816,16 +2597,16 @@
         <v>76.5</v>
       </c>
       <c r="I69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J69" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" t="s">
         <v>62</v>
       </c>
-      <c r="K69" t="s">
+      <c r="M69" t="s">
         <v>63</v>
-      </c>
-      <c r="M69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -1835,6 +2616,9 @@
       <c r="B70" t="s">
         <v>20</v>
       </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
       <c r="D70" t="s">
         <v>23</v>
       </c>
@@ -1845,16 +2629,16 @@
         <v>79.599999999999994</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" t="s">
         <v>62</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M70" t="s">
         <v>63</v>
-      </c>
-      <c r="M70" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -1864,6 +2648,9 @@
       <c r="B71" t="s">
         <v>20</v>
       </c>
+      <c r="C71" t="s">
+        <v>98</v>
+      </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
@@ -1874,16 +2661,16 @@
         <v>101.5</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" t="s">
         <v>62</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>63</v>
-      </c>
-      <c r="M71" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -1893,6 +2680,9 @@
       <c r="B72" t="s">
         <v>20</v>
       </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
       <c r="D72" t="s">
         <v>23</v>
       </c>
@@ -1903,16 +2693,16 @@
         <v>99.8</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J72" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" t="s">
         <v>62</v>
       </c>
-      <c r="K72" t="s">
+      <c r="M72" t="s">
         <v>63</v>
-      </c>
-      <c r="M72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -1922,6 +2712,9 @@
       <c r="B73" t="s">
         <v>20</v>
       </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
       <c r="D73" t="s">
         <v>23</v>
       </c>
@@ -1932,16 +2725,16 @@
         <v>84.5</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" t="s">
         <v>62</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>63</v>
-      </c>
-      <c r="M73" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -1951,6 +2744,9 @@
       <c r="B74" t="s">
         <v>20</v>
       </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
@@ -1961,16 +2757,16 @@
         <v>84.3</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J74" t="s">
+        <v>61</v>
+      </c>
+      <c r="K74" t="s">
         <v>62</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>63</v>
-      </c>
-      <c r="M74" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -1980,6 +2776,9 @@
       <c r="B75" t="s">
         <v>20</v>
       </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
       <c r="D75" t="s">
         <v>23</v>
       </c>
@@ -1990,16 +2789,16 @@
         <v>78.7</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s">
+        <v>61</v>
+      </c>
+      <c r="K75" t="s">
         <v>62</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>63</v>
-      </c>
-      <c r="M75" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -2009,6 +2808,9 @@
       <c r="B76" t="s">
         <v>20</v>
       </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
       <c r="D76" t="s">
         <v>23</v>
       </c>
@@ -2019,16 +2821,16 @@
         <v>85.9</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76" t="s">
         <v>62</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>63</v>
-      </c>
-      <c r="M76" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -2038,6 +2840,9 @@
       <c r="B77" t="s">
         <v>20</v>
       </c>
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
       <c r="D77" t="s">
         <v>23</v>
       </c>
@@ -2048,16 +2853,16 @@
         <v>98.1</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77" t="s">
+        <v>61</v>
+      </c>
+      <c r="K77" t="s">
         <v>62</v>
       </c>
-      <c r="K77" t="s">
+      <c r="M77" t="s">
         <v>63</v>
-      </c>
-      <c r="M77" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -2067,6 +2872,9 @@
       <c r="B78" t="s">
         <v>20</v>
       </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
       <c r="D78" t="s">
         <v>23</v>
       </c>
@@ -2077,16 +2885,16 @@
         <v>88.1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78" t="s">
+        <v>61</v>
+      </c>
+      <c r="K78" t="s">
         <v>62</v>
       </c>
-      <c r="K78" t="s">
+      <c r="M78" t="s">
         <v>63</v>
-      </c>
-      <c r="M78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -2096,6 +2904,9 @@
       <c r="B79" t="s">
         <v>20</v>
       </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
       <c r="D79" t="s">
         <v>23</v>
       </c>
@@ -2106,16 +2917,16 @@
         <v>107.5</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s">
+        <v>61</v>
+      </c>
+      <c r="K79" t="s">
         <v>62</v>
       </c>
-      <c r="K79" t="s">
+      <c r="M79" t="s">
         <v>63</v>
-      </c>
-      <c r="M79" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -2125,6 +2936,9 @@
       <c r="B80" t="s">
         <v>20</v>
       </c>
+      <c r="C80" t="s">
+        <v>98</v>
+      </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
@@ -2135,16 +2949,16 @@
         <v>157.30000000000001</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s">
+        <v>61</v>
+      </c>
+      <c r="K80" t="s">
         <v>62</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
         <v>63</v>
-      </c>
-      <c r="M80" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -2154,6 +2968,9 @@
       <c r="B81" t="s">
         <v>20</v>
       </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
       <c r="D81" t="s">
         <v>23</v>
       </c>
@@ -2164,16 +2981,16 @@
         <v>157.19999999999999</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J81" t="s">
+        <v>61</v>
+      </c>
+      <c r="K81" t="s">
         <v>62</v>
       </c>
-      <c r="K81" t="s">
+      <c r="M81" t="s">
         <v>63</v>
-      </c>
-      <c r="M81" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -2183,6 +3000,9 @@
       <c r="B82" t="s">
         <v>20</v>
       </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
       <c r="D82" t="s">
         <v>23</v>
       </c>
@@ -2193,16 +3013,16 @@
         <v>158.9</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" t="s">
         <v>62</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>63</v>
-      </c>
-      <c r="M82" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -2212,6 +3032,9 @@
       <c r="B83" t="s">
         <v>20</v>
       </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
@@ -2222,16 +3045,16 @@
         <v>208.4</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83" t="s">
         <v>62</v>
       </c>
-      <c r="K83" t="s">
+      <c r="M83" t="s">
         <v>63</v>
-      </c>
-      <c r="M83" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -2241,6 +3064,9 @@
       <c r="B84" t="s">
         <v>20</v>
       </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
       <c r="D84" t="s">
         <v>23</v>
       </c>
@@ -2251,16 +3077,16 @@
         <v>360.7</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J84" t="s">
+        <v>61</v>
+      </c>
+      <c r="K84" t="s">
         <v>62</v>
       </c>
-      <c r="K84" t="s">
+      <c r="M84" t="s">
         <v>63</v>
-      </c>
-      <c r="M84" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -2270,6 +3096,9 @@
       <c r="B85" t="s">
         <v>20</v>
       </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
       <c r="D85" t="s">
         <v>23</v>
       </c>
@@ -2280,16 +3109,16 @@
         <v>229.8</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J85" t="s">
+        <v>61</v>
+      </c>
+      <c r="K85" t="s">
         <v>62</v>
       </c>
-      <c r="K85" t="s">
+      <c r="M85" t="s">
         <v>63</v>
-      </c>
-      <c r="M85" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -2299,6 +3128,9 @@
       <c r="B86" t="s">
         <v>20</v>
       </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
@@ -2309,16 +3141,16 @@
         <v>258.89999999999998</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J86" t="s">
+        <v>61</v>
+      </c>
+      <c r="K86" t="s">
         <v>62</v>
       </c>
-      <c r="K86" t="s">
+      <c r="M86" t="s">
         <v>63</v>
-      </c>
-      <c r="M86" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -2328,6 +3160,9 @@
       <c r="B87" t="s">
         <v>20</v>
       </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
       <c r="D87" t="s">
         <v>23</v>
       </c>
@@ -2338,16 +3173,16 @@
         <v>334.4</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87" t="s">
+        <v>61</v>
+      </c>
+      <c r="K87" t="s">
         <v>62</v>
       </c>
-      <c r="K87" t="s">
+      <c r="M87" t="s">
         <v>63</v>
-      </c>
-      <c r="M87" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -2357,6 +3192,9 @@
       <c r="B88" t="s">
         <v>20</v>
       </c>
+      <c r="C88" t="s">
+        <v>98</v>
+      </c>
       <c r="D88" t="s">
         <v>23</v>
       </c>
@@ -2367,16 +3205,16 @@
         <v>254.2</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J88" t="s">
+        <v>61</v>
+      </c>
+      <c r="K88" t="s">
         <v>62</v>
       </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>63</v>
-      </c>
-      <c r="M88" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -2386,6 +3224,9 @@
       <c r="B89" t="s">
         <v>20</v>
       </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
       <c r="D89" t="s">
         <v>23</v>
       </c>
@@ -2396,16 +3237,16 @@
         <v>205.9</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J89" t="s">
+        <v>61</v>
+      </c>
+      <c r="K89" t="s">
         <v>62</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>63</v>
-      </c>
-      <c r="M89" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -2415,6 +3256,9 @@
       <c r="B90" t="s">
         <v>20</v>
       </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
       <c r="D90" t="s">
         <v>23</v>
       </c>
@@ -2425,16 +3269,16 @@
         <v>187.1</v>
       </c>
       <c r="I90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J90" t="s">
+        <v>61</v>
+      </c>
+      <c r="K90" t="s">
         <v>62</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>63</v>
-      </c>
-      <c r="M90" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -2444,6 +3288,9 @@
       <c r="B91" t="s">
         <v>20</v>
       </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
       <c r="D91" t="s">
         <v>23</v>
       </c>
@@ -2454,16 +3301,16 @@
         <v>164.5</v>
       </c>
       <c r="I91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J91" t="s">
+        <v>61</v>
+      </c>
+      <c r="K91" t="s">
         <v>62</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>63</v>
-      </c>
-      <c r="M91" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -2473,6 +3320,9 @@
       <c r="B92" t="s">
         <v>20</v>
       </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
       <c r="D92" t="s">
         <v>23</v>
       </c>
@@ -2483,16 +3333,16 @@
         <v>151.4</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J92" t="s">
+        <v>61</v>
+      </c>
+      <c r="K92" t="s">
         <v>62</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>63</v>
-      </c>
-      <c r="M92" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -2502,6 +3352,9 @@
       <c r="B93" t="s">
         <v>20</v>
       </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
       <c r="D93" t="s">
         <v>23</v>
       </c>
@@ -2512,16 +3365,16 @@
         <v>160.9</v>
       </c>
       <c r="I93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J93" t="s">
+        <v>61</v>
+      </c>
+      <c r="K93" t="s">
         <v>62</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>63</v>
-      </c>
-      <c r="M93" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -2531,6 +3384,9 @@
       <c r="B94" t="s">
         <v>20</v>
       </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
       <c r="D94" t="s">
         <v>23</v>
       </c>
@@ -2541,16 +3397,16 @@
         <v>195.1</v>
       </c>
       <c r="I94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J94" t="s">
+        <v>61</v>
+      </c>
+      <c r="K94" t="s">
         <v>62</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>63</v>
-      </c>
-      <c r="M94" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -2560,6 +3416,9 @@
       <c r="B95" t="s">
         <v>20</v>
       </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
       <c r="D95" t="s">
         <v>23</v>
       </c>
@@ -2570,16 +3429,16 @@
         <v>159</v>
       </c>
       <c r="I95" t="s">
+        <v>60</v>
+      </c>
+      <c r="J95" t="s">
         <v>61</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>62</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>63</v>
-      </c>
-      <c r="M95" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -2589,6 +3448,9 @@
       <c r="B96" t="s">
         <v>20</v>
       </c>
+      <c r="C96" t="s">
+        <v>64</v>
+      </c>
       <c r="D96" t="s">
         <v>24</v>
       </c>
@@ -2606,6 +3468,9 @@
       <c r="B97" t="s">
         <v>20</v>
       </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
       <c r="D97" t="s">
         <v>24</v>
       </c>
@@ -2623,6 +3488,9 @@
       <c r="B98" t="s">
         <v>20</v>
       </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
       <c r="D98" t="s">
         <v>24</v>
       </c>
@@ -2640,6 +3508,9 @@
       <c r="B99" t="s">
         <v>20</v>
       </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
@@ -2657,6 +3528,9 @@
       <c r="B100" t="s">
         <v>20</v>
       </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
       <c r="D100" t="s">
         <v>24</v>
       </c>
@@ -2674,6 +3548,9 @@
       <c r="B101" t="s">
         <v>20</v>
       </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
       <c r="D101" t="s">
         <v>24</v>
       </c>
@@ -2691,6 +3568,9 @@
       <c r="B102" t="s">
         <v>20</v>
       </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
@@ -2708,6 +3588,9 @@
       <c r="B103" t="s">
         <v>20</v>
       </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
       <c r="D103" t="s">
         <v>24</v>
       </c>
@@ -2725,6 +3608,9 @@
       <c r="B104" t="s">
         <v>20</v>
       </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
       <c r="D104" t="s">
         <v>24</v>
       </c>
@@ -2742,6 +3628,9 @@
       <c r="B105" t="s">
         <v>20</v>
       </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
@@ -2759,6 +3648,9 @@
       <c r="B106" t="s">
         <v>20</v>
       </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
       <c r="D106" t="s">
         <v>24</v>
       </c>
@@ -2776,6 +3668,9 @@
       <c r="B107" t="s">
         <v>20</v>
       </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
       <c r="D107" t="s">
         <v>24</v>
       </c>
@@ -2793,6 +3688,9 @@
       <c r="B108" t="s">
         <v>20</v>
       </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
       <c r="D108" t="s">
         <v>24</v>
       </c>
@@ -2810,6 +3708,9 @@
       <c r="B109" t="s">
         <v>20</v>
       </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
       <c r="D109" t="s">
         <v>24</v>
       </c>
@@ -2827,6 +3728,9 @@
       <c r="B110" t="s">
         <v>20</v>
       </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
       <c r="D110" t="s">
         <v>24</v>
       </c>
@@ -2844,6 +3748,9 @@
       <c r="B111" t="s">
         <v>20</v>
       </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
       <c r="D111" t="s">
         <v>24</v>
       </c>
@@ -2861,6 +3768,9 @@
       <c r="B112" t="s">
         <v>20</v>
       </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
       <c r="D112" t="s">
         <v>24</v>
       </c>
@@ -2878,6 +3788,9 @@
       <c r="B113" t="s">
         <v>20</v>
       </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
       <c r="D113" t="s">
         <v>24</v>
       </c>
@@ -2895,6 +3808,9 @@
       <c r="B114" t="s">
         <v>20</v>
       </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
       <c r="D114" t="s">
         <v>24</v>
       </c>
@@ -2912,6 +3828,9 @@
       <c r="B115" t="s">
         <v>20</v>
       </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
       <c r="D115" t="s">
         <v>24</v>
       </c>
@@ -2929,6 +3848,9 @@
       <c r="B116" t="s">
         <v>20</v>
       </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
       <c r="D116" t="s">
         <v>24</v>
       </c>
@@ -2946,6 +3868,9 @@
       <c r="B117" t="s">
         <v>20</v>
       </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
       <c r="D117" t="s">
         <v>24</v>
       </c>
@@ -2963,6 +3888,9 @@
       <c r="B118" t="s">
         <v>20</v>
       </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
       <c r="D118" t="s">
         <v>24</v>
       </c>
@@ -2980,6 +3908,9 @@
       <c r="B119" t="s">
         <v>20</v>
       </c>
+      <c r="C119" t="s">
+        <v>64</v>
+      </c>
       <c r="D119" t="s">
         <v>24</v>
       </c>
@@ -2997,6 +3928,9 @@
       <c r="B120" t="s">
         <v>20</v>
       </c>
+      <c r="C120" t="s">
+        <v>64</v>
+      </c>
       <c r="D120" t="s">
         <v>24</v>
       </c>
@@ -3014,6 +3948,9 @@
       <c r="B121" t="s">
         <v>20</v>
       </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
       <c r="D121" t="s">
         <v>24</v>
       </c>
@@ -3031,6 +3968,9 @@
       <c r="B122" t="s">
         <v>20</v>
       </c>
+      <c r="C122" t="s">
+        <v>64</v>
+      </c>
       <c r="D122" t="s">
         <v>24</v>
       </c>
@@ -3048,6 +3988,9 @@
       <c r="B123" t="s">
         <v>20</v>
       </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
       <c r="D123" t="s">
         <v>24</v>
       </c>
@@ -3065,6 +4008,9 @@
       <c r="B124" t="s">
         <v>20</v>
       </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
       <c r="D124" t="s">
         <v>24</v>
       </c>
@@ -3082,6 +4028,9 @@
       <c r="B125" t="s">
         <v>20</v>
       </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
       <c r="D125" t="s">
         <v>24</v>
       </c>
@@ -3099,6 +4048,9 @@
       <c r="B126" t="s">
         <v>20</v>
       </c>
+      <c r="C126" t="s">
+        <v>101</v>
+      </c>
       <c r="D126" t="s">
         <v>25</v>
       </c>
@@ -3116,6 +4068,9 @@
       <c r="B127" t="s">
         <v>20</v>
       </c>
+      <c r="C127" t="s">
+        <v>101</v>
+      </c>
       <c r="D127" t="s">
         <v>25</v>
       </c>
@@ -3133,6 +4088,9 @@
       <c r="B128" t="s">
         <v>20</v>
       </c>
+      <c r="C128" t="s">
+        <v>101</v>
+      </c>
       <c r="D128" t="s">
         <v>25</v>
       </c>
@@ -3150,6 +4108,9 @@
       <c r="B129" t="s">
         <v>20</v>
       </c>
+      <c r="C129" t="s">
+        <v>101</v>
+      </c>
       <c r="D129" t="s">
         <v>25</v>
       </c>
@@ -3167,6 +4128,9 @@
       <c r="B130" t="s">
         <v>20</v>
       </c>
+      <c r="C130" t="s">
+        <v>101</v>
+      </c>
       <c r="D130" t="s">
         <v>25</v>
       </c>
@@ -3184,6 +4148,9 @@
       <c r="B131" t="s">
         <v>20</v>
       </c>
+      <c r="C131" t="s">
+        <v>101</v>
+      </c>
       <c r="D131" t="s">
         <v>25</v>
       </c>
@@ -3201,6 +4168,9 @@
       <c r="B132" t="s">
         <v>20</v>
       </c>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
       <c r="D132" t="s">
         <v>25</v>
       </c>
@@ -3218,6 +4188,9 @@
       <c r="B133" t="s">
         <v>20</v>
       </c>
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
       <c r="D133" t="s">
         <v>25</v>
       </c>
@@ -3235,6 +4208,9 @@
       <c r="B134" t="s">
         <v>20</v>
       </c>
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
       <c r="D134" t="s">
         <v>25</v>
       </c>
@@ -3252,6 +4228,9 @@
       <c r="B135" t="s">
         <v>20</v>
       </c>
+      <c r="C135" t="s">
+        <v>101</v>
+      </c>
       <c r="D135" t="s">
         <v>25</v>
       </c>
@@ -3269,6 +4248,9 @@
       <c r="B136" t="s">
         <v>20</v>
       </c>
+      <c r="C136" t="s">
+        <v>101</v>
+      </c>
       <c r="D136" t="s">
         <v>25</v>
       </c>
@@ -3286,6 +4268,9 @@
       <c r="B137" t="s">
         <v>20</v>
       </c>
+      <c r="C137" t="s">
+        <v>101</v>
+      </c>
       <c r="D137" t="s">
         <v>25</v>
       </c>
@@ -3303,6 +4288,9 @@
       <c r="B138" t="s">
         <v>20</v>
       </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
       <c r="D138" t="s">
         <v>25</v>
       </c>
@@ -3320,6 +4308,9 @@
       <c r="B139" t="s">
         <v>20</v>
       </c>
+      <c r="C139" t="s">
+        <v>101</v>
+      </c>
       <c r="D139" t="s">
         <v>25</v>
       </c>
@@ -3337,6 +4328,9 @@
       <c r="B140" t="s">
         <v>20</v>
       </c>
+      <c r="C140" t="s">
+        <v>101</v>
+      </c>
       <c r="D140" t="s">
         <v>25</v>
       </c>
@@ -3354,6 +4348,9 @@
       <c r="B141" t="s">
         <v>20</v>
       </c>
+      <c r="C141" t="s">
+        <v>101</v>
+      </c>
       <c r="D141" t="s">
         <v>25</v>
       </c>
@@ -3371,6 +4368,9 @@
       <c r="B142" t="s">
         <v>20</v>
       </c>
+      <c r="C142" t="s">
+        <v>101</v>
+      </c>
       <c r="D142" t="s">
         <v>25</v>
       </c>
@@ -3388,6 +4388,9 @@
       <c r="B143" t="s">
         <v>20</v>
       </c>
+      <c r="C143" t="s">
+        <v>101</v>
+      </c>
       <c r="D143" t="s">
         <v>25</v>
       </c>
@@ -3405,6 +4408,9 @@
       <c r="B144" t="s">
         <v>20</v>
       </c>
+      <c r="C144" t="s">
+        <v>101</v>
+      </c>
       <c r="D144" t="s">
         <v>25</v>
       </c>
@@ -3422,6 +4428,9 @@
       <c r="B145" t="s">
         <v>20</v>
       </c>
+      <c r="C145" t="s">
+        <v>101</v>
+      </c>
       <c r="D145" t="s">
         <v>25</v>
       </c>
@@ -3439,6 +4448,9 @@
       <c r="B146" t="s">
         <v>20</v>
       </c>
+      <c r="C146" t="s">
+        <v>101</v>
+      </c>
       <c r="D146" t="s">
         <v>25</v>
       </c>
@@ -3456,6 +4468,9 @@
       <c r="B147" t="s">
         <v>20</v>
       </c>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
       <c r="D147" t="s">
         <v>25</v>
       </c>
@@ -3473,6 +4488,9 @@
       <c r="B148" t="s">
         <v>20</v>
       </c>
+      <c r="C148" t="s">
+        <v>101</v>
+      </c>
       <c r="D148" t="s">
         <v>25</v>
       </c>
@@ -3490,6 +4508,9 @@
       <c r="B149" t="s">
         <v>20</v>
       </c>
+      <c r="C149" t="s">
+        <v>101</v>
+      </c>
       <c r="D149" t="s">
         <v>25</v>
       </c>
@@ -3507,6 +4528,9 @@
       <c r="B150" t="s">
         <v>20</v>
       </c>
+      <c r="C150" t="s">
+        <v>101</v>
+      </c>
       <c r="D150" t="s">
         <v>25</v>
       </c>
@@ -3524,6 +4548,9 @@
       <c r="B151" t="s">
         <v>20</v>
       </c>
+      <c r="C151" t="s">
+        <v>101</v>
+      </c>
       <c r="D151" t="s">
         <v>25</v>
       </c>
@@ -3541,6 +4568,9 @@
       <c r="B152" t="s">
         <v>20</v>
       </c>
+      <c r="C152" t="s">
+        <v>101</v>
+      </c>
       <c r="D152" t="s">
         <v>25</v>
       </c>
@@ -3558,6 +4588,9 @@
       <c r="B153" t="s">
         <v>20</v>
       </c>
+      <c r="C153" t="s">
+        <v>101</v>
+      </c>
       <c r="D153" t="s">
         <v>25</v>
       </c>
@@ -3575,6 +4608,9 @@
       <c r="B154" t="s">
         <v>20</v>
       </c>
+      <c r="C154" t="s">
+        <v>101</v>
+      </c>
       <c r="D154" t="s">
         <v>25</v>
       </c>
@@ -3592,6 +4628,9 @@
       <c r="B155" t="s">
         <v>20</v>
       </c>
+      <c r="C155" t="s">
+        <v>101</v>
+      </c>
       <c r="D155" t="s">
         <v>25</v>
       </c>
@@ -3609,6 +4648,9 @@
       <c r="B156" t="s">
         <v>20</v>
       </c>
+      <c r="C156" t="s">
+        <v>101</v>
+      </c>
       <c r="D156" t="s">
         <v>26</v>
       </c>
@@ -3626,6 +4668,9 @@
       <c r="B157" t="s">
         <v>20</v>
       </c>
+      <c r="C157" t="s">
+        <v>101</v>
+      </c>
       <c r="D157" t="s">
         <v>26</v>
       </c>
@@ -3643,6 +4688,9 @@
       <c r="B158" t="s">
         <v>20</v>
       </c>
+      <c r="C158" t="s">
+        <v>101</v>
+      </c>
       <c r="D158" t="s">
         <v>26</v>
       </c>
@@ -3660,6 +4708,9 @@
       <c r="B159" t="s">
         <v>20</v>
       </c>
+      <c r="C159" t="s">
+        <v>101</v>
+      </c>
       <c r="D159" t="s">
         <v>26</v>
       </c>
@@ -3677,6 +4728,9 @@
       <c r="B160" t="s">
         <v>20</v>
       </c>
+      <c r="C160" t="s">
+        <v>101</v>
+      </c>
       <c r="D160" t="s">
         <v>26</v>
       </c>
@@ -3694,6 +4748,9 @@
       <c r="B161" t="s">
         <v>20</v>
       </c>
+      <c r="C161" t="s">
+        <v>101</v>
+      </c>
       <c r="D161" t="s">
         <v>26</v>
       </c>
@@ -3711,6 +4768,9 @@
       <c r="B162" t="s">
         <v>20</v>
       </c>
+      <c r="C162" t="s">
+        <v>101</v>
+      </c>
       <c r="D162" t="s">
         <v>26</v>
       </c>
@@ -3728,6 +4788,9 @@
       <c r="B163" t="s">
         <v>20</v>
       </c>
+      <c r="C163" t="s">
+        <v>101</v>
+      </c>
       <c r="D163" t="s">
         <v>26</v>
       </c>
@@ -3745,6 +4808,9 @@
       <c r="B164" t="s">
         <v>20</v>
       </c>
+      <c r="C164" t="s">
+        <v>101</v>
+      </c>
       <c r="D164" t="s">
         <v>26</v>
       </c>
@@ -3762,6 +4828,9 @@
       <c r="B165" t="s">
         <v>20</v>
       </c>
+      <c r="C165" t="s">
+        <v>101</v>
+      </c>
       <c r="D165" t="s">
         <v>26</v>
       </c>
@@ -3779,6 +4848,9 @@
       <c r="B166" t="s">
         <v>20</v>
       </c>
+      <c r="C166" t="s">
+        <v>101</v>
+      </c>
       <c r="D166" t="s">
         <v>26</v>
       </c>
@@ -3796,6 +4868,9 @@
       <c r="B167" t="s">
         <v>20</v>
       </c>
+      <c r="C167" t="s">
+        <v>101</v>
+      </c>
       <c r="D167" t="s">
         <v>26</v>
       </c>
@@ -3813,6 +4888,9 @@
       <c r="B168" t="s">
         <v>20</v>
       </c>
+      <c r="C168" t="s">
+        <v>101</v>
+      </c>
       <c r="D168" t="s">
         <v>26</v>
       </c>
@@ -3830,6 +4908,9 @@
       <c r="B169" t="s">
         <v>20</v>
       </c>
+      <c r="C169" t="s">
+        <v>101</v>
+      </c>
       <c r="D169" t="s">
         <v>26</v>
       </c>
@@ -3847,6 +4928,9 @@
       <c r="B170" t="s">
         <v>20</v>
       </c>
+      <c r="C170" t="s">
+        <v>101</v>
+      </c>
       <c r="D170" t="s">
         <v>26</v>
       </c>
@@ -3864,6 +4948,9 @@
       <c r="B171" t="s">
         <v>20</v>
       </c>
+      <c r="C171" t="s">
+        <v>101</v>
+      </c>
       <c r="D171" t="s">
         <v>26</v>
       </c>
@@ -3881,6 +4968,9 @@
       <c r="B172" t="s">
         <v>20</v>
       </c>
+      <c r="C172" t="s">
+        <v>101</v>
+      </c>
       <c r="D172" t="s">
         <v>26</v>
       </c>
@@ -3898,6 +4988,9 @@
       <c r="B173" t="s">
         <v>20</v>
       </c>
+      <c r="C173" t="s">
+        <v>101</v>
+      </c>
       <c r="D173" t="s">
         <v>26</v>
       </c>
@@ -3915,6 +5008,9 @@
       <c r="B174" t="s">
         <v>20</v>
       </c>
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
       <c r="D174" t="s">
         <v>26</v>
       </c>
@@ -3932,6 +5028,9 @@
       <c r="B175" t="s">
         <v>20</v>
       </c>
+      <c r="C175" t="s">
+        <v>101</v>
+      </c>
       <c r="D175" t="s">
         <v>26</v>
       </c>
@@ -3949,6 +5048,9 @@
       <c r="B176" t="s">
         <v>20</v>
       </c>
+      <c r="C176" t="s">
+        <v>101</v>
+      </c>
       <c r="D176" t="s">
         <v>26</v>
       </c>
@@ -3966,6 +5068,9 @@
       <c r="B177" t="s">
         <v>20</v>
       </c>
+      <c r="C177" t="s">
+        <v>101</v>
+      </c>
       <c r="D177" t="s">
         <v>26</v>
       </c>
@@ -3983,6 +5088,9 @@
       <c r="B178" t="s">
         <v>20</v>
       </c>
+      <c r="C178" t="s">
+        <v>101</v>
+      </c>
       <c r="D178" t="s">
         <v>26</v>
       </c>
@@ -4000,6 +5108,9 @@
       <c r="B179" t="s">
         <v>20</v>
       </c>
+      <c r="C179" t="s">
+        <v>101</v>
+      </c>
       <c r="D179" t="s">
         <v>26</v>
       </c>
@@ -4017,6 +5128,9 @@
       <c r="B180" t="s">
         <v>20</v>
       </c>
+      <c r="C180" t="s">
+        <v>101</v>
+      </c>
       <c r="D180" t="s">
         <v>26</v>
       </c>
@@ -4034,6 +5148,9 @@
       <c r="B181" t="s">
         <v>20</v>
       </c>
+      <c r="C181" t="s">
+        <v>101</v>
+      </c>
       <c r="D181" t="s">
         <v>26</v>
       </c>
@@ -4051,6 +5168,9 @@
       <c r="B182" t="s">
         <v>20</v>
       </c>
+      <c r="C182" t="s">
+        <v>101</v>
+      </c>
       <c r="D182" t="s">
         <v>26</v>
       </c>
@@ -4068,6 +5188,9 @@
       <c r="B183" t="s">
         <v>20</v>
       </c>
+      <c r="C183" t="s">
+        <v>101</v>
+      </c>
       <c r="D183" t="s">
         <v>26</v>
       </c>
@@ -4085,6 +5208,9 @@
       <c r="B184" t="s">
         <v>20</v>
       </c>
+      <c r="C184" t="s">
+        <v>101</v>
+      </c>
       <c r="D184" t="s">
         <v>26</v>
       </c>
@@ -4102,6 +5228,9 @@
       <c r="B185" t="s">
         <v>20</v>
       </c>
+      <c r="C185" t="s">
+        <v>101</v>
+      </c>
       <c r="D185" t="s">
         <v>26</v>
       </c>
@@ -4119,6 +5248,9 @@
       <c r="B186" t="s">
         <v>20</v>
       </c>
+      <c r="C186" t="s">
+        <v>101</v>
+      </c>
       <c r="D186" t="s">
         <v>27</v>
       </c>
@@ -4136,6 +5268,9 @@
       <c r="B187" t="s">
         <v>20</v>
       </c>
+      <c r="C187" t="s">
+        <v>101</v>
+      </c>
       <c r="D187" t="s">
         <v>27</v>
       </c>
@@ -4153,6 +5288,9 @@
       <c r="B188" t="s">
         <v>20</v>
       </c>
+      <c r="C188" t="s">
+        <v>101</v>
+      </c>
       <c r="D188" t="s">
         <v>27</v>
       </c>
@@ -4170,6 +5308,9 @@
       <c r="B189" t="s">
         <v>20</v>
       </c>
+      <c r="C189" t="s">
+        <v>101</v>
+      </c>
       <c r="D189" t="s">
         <v>27</v>
       </c>
@@ -4187,6 +5328,9 @@
       <c r="B190" t="s">
         <v>20</v>
       </c>
+      <c r="C190" t="s">
+        <v>101</v>
+      </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
@@ -4204,6 +5348,9 @@
       <c r="B191" t="s">
         <v>20</v>
       </c>
+      <c r="C191" t="s">
+        <v>101</v>
+      </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
@@ -4221,6 +5368,9 @@
       <c r="B192" t="s">
         <v>20</v>
       </c>
+      <c r="C192" t="s">
+        <v>101</v>
+      </c>
       <c r="D192" t="s">
         <v>27</v>
       </c>
@@ -4238,6 +5388,9 @@
       <c r="B193" t="s">
         <v>20</v>
       </c>
+      <c r="C193" t="s">
+        <v>101</v>
+      </c>
       <c r="D193" t="s">
         <v>27</v>
       </c>
@@ -4255,6 +5408,9 @@
       <c r="B194" t="s">
         <v>20</v>
       </c>
+      <c r="C194" t="s">
+        <v>101</v>
+      </c>
       <c r="D194" t="s">
         <v>27</v>
       </c>
@@ -4272,6 +5428,9 @@
       <c r="B195" t="s">
         <v>20</v>
       </c>
+      <c r="C195" t="s">
+        <v>101</v>
+      </c>
       <c r="D195" t="s">
         <v>27</v>
       </c>
@@ -4289,6 +5448,9 @@
       <c r="B196" t="s">
         <v>20</v>
       </c>
+      <c r="C196" t="s">
+        <v>101</v>
+      </c>
       <c r="D196" t="s">
         <v>27</v>
       </c>
@@ -4306,6 +5468,9 @@
       <c r="B197" t="s">
         <v>20</v>
       </c>
+      <c r="C197" t="s">
+        <v>101</v>
+      </c>
       <c r="D197" t="s">
         <v>27</v>
       </c>
@@ -4323,6 +5488,9 @@
       <c r="B198" t="s">
         <v>20</v>
       </c>
+      <c r="C198" t="s">
+        <v>101</v>
+      </c>
       <c r="D198" t="s">
         <v>27</v>
       </c>
@@ -4340,6 +5508,9 @@
       <c r="B199" t="s">
         <v>20</v>
       </c>
+      <c r="C199" t="s">
+        <v>101</v>
+      </c>
       <c r="D199" t="s">
         <v>27</v>
       </c>
@@ -4357,6 +5528,9 @@
       <c r="B200" t="s">
         <v>20</v>
       </c>
+      <c r="C200" t="s">
+        <v>101</v>
+      </c>
       <c r="D200" t="s">
         <v>27</v>
       </c>
@@ -4374,6 +5548,9 @@
       <c r="B201" t="s">
         <v>20</v>
       </c>
+      <c r="C201" t="s">
+        <v>101</v>
+      </c>
       <c r="D201" t="s">
         <v>27</v>
       </c>
@@ -4391,6 +5568,9 @@
       <c r="B202" t="s">
         <v>20</v>
       </c>
+      <c r="C202" t="s">
+        <v>101</v>
+      </c>
       <c r="D202" t="s">
         <v>27</v>
       </c>
@@ -4408,6 +5588,9 @@
       <c r="B203" t="s">
         <v>20</v>
       </c>
+      <c r="C203" t="s">
+        <v>101</v>
+      </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
@@ -4425,6 +5608,9 @@
       <c r="B204" t="s">
         <v>20</v>
       </c>
+      <c r="C204" t="s">
+        <v>101</v>
+      </c>
       <c r="D204" t="s">
         <v>27</v>
       </c>
@@ -4442,6 +5628,9 @@
       <c r="B205" t="s">
         <v>20</v>
       </c>
+      <c r="C205" t="s">
+        <v>101</v>
+      </c>
       <c r="D205" t="s">
         <v>27</v>
       </c>
@@ -4459,6 +5648,9 @@
       <c r="B206" t="s">
         <v>20</v>
       </c>
+      <c r="C206" t="s">
+        <v>101</v>
+      </c>
       <c r="D206" t="s">
         <v>27</v>
       </c>
@@ -4476,6 +5668,9 @@
       <c r="B207" t="s">
         <v>20</v>
       </c>
+      <c r="C207" t="s">
+        <v>101</v>
+      </c>
       <c r="D207" t="s">
         <v>27</v>
       </c>
@@ -4493,6 +5688,9 @@
       <c r="B208" t="s">
         <v>20</v>
       </c>
+      <c r="C208" t="s">
+        <v>101</v>
+      </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
@@ -4503,12 +5701,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>101</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
@@ -4520,12 +5721,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>19</v>
       </c>
       <c r="B210" t="s">
         <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>101</v>
       </c>
       <c r="D210" t="s">
         <v>27</v>
@@ -4537,12 +5741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
       <c r="B211" t="s">
         <v>20</v>
+      </c>
+      <c r="C211" t="s">
+        <v>101</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
@@ -4554,12 +5761,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
+      </c>
+      <c r="C212" t="s">
+        <v>101</v>
       </c>
       <c r="D212" t="s">
         <v>27</v>
@@ -4571,12 +5781,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
+      </c>
+      <c r="C213" t="s">
+        <v>101</v>
       </c>
       <c r="D213" t="s">
         <v>27</v>
@@ -4588,12 +5801,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>19</v>
       </c>
       <c r="B214" t="s">
         <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>101</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
@@ -4605,12 +5821,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
       <c r="B215" t="s">
         <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>101</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
@@ -4622,12 +5841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>19</v>
       </c>
       <c r="B216" t="s">
         <v>20</v>
+      </c>
+      <c r="C216" t="s">
+        <v>64</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
@@ -4635,16 +5857,26 @@
       <c r="F216">
         <v>1990</v>
       </c>
-      <c r="H216" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H216">
+        <f>MAX(H$6:H$35)*1.3</f>
+        <v>18694</v>
+      </c>
+      <c r="I216" t="s">
+        <v>65</v>
+      </c>
+      <c r="M216" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>19</v>
       </c>
       <c r="B217" t="s">
         <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>64</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
@@ -4652,16 +5884,26 @@
       <c r="F217">
         <v>1991</v>
       </c>
-      <c r="H217" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H217">
+        <f t="shared" ref="H217:H245" si="0">MAX(H$6:H$35)*1.3</f>
+        <v>18694</v>
+      </c>
+      <c r="I217" t="s">
+        <v>65</v>
+      </c>
+      <c r="M217" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
       <c r="B218" t="s">
         <v>20</v>
+      </c>
+      <c r="C218" t="s">
+        <v>64</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
@@ -4669,16 +5911,26 @@
       <c r="F218">
         <v>1992</v>
       </c>
-      <c r="H218" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H218">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I218" t="s">
+        <v>65</v>
+      </c>
+      <c r="M218" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>19</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>64</v>
       </c>
       <c r="D219" t="s">
         <v>28</v>
@@ -4686,16 +5938,26 @@
       <c r="F219">
         <v>1993</v>
       </c>
-      <c r="H219" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H219">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I219" t="s">
+        <v>65</v>
+      </c>
+      <c r="M219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>19</v>
       </c>
       <c r="B220" t="s">
         <v>20</v>
+      </c>
+      <c r="C220" t="s">
+        <v>64</v>
       </c>
       <c r="D220" t="s">
         <v>28</v>
@@ -4703,16 +5965,26 @@
       <c r="F220">
         <v>1994</v>
       </c>
-      <c r="H220" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H220">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I220" t="s">
+        <v>65</v>
+      </c>
+      <c r="M220" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>19</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
+      </c>
+      <c r="C221" t="s">
+        <v>64</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
@@ -4720,16 +5992,26 @@
       <c r="F221">
         <v>1995</v>
       </c>
-      <c r="H221" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H221">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I221" t="s">
+        <v>65</v>
+      </c>
+      <c r="M221" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>19</v>
       </c>
       <c r="B222" t="s">
         <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>64</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
@@ -4737,16 +6019,26 @@
       <c r="F222">
         <v>1996</v>
       </c>
-      <c r="H222" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H222">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I222" t="s">
+        <v>65</v>
+      </c>
+      <c r="M222" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>19</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
+      </c>
+      <c r="C223" t="s">
+        <v>64</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
@@ -4754,16 +6046,26 @@
       <c r="F223">
         <v>1997</v>
       </c>
-      <c r="H223" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H223">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I223" t="s">
+        <v>65</v>
+      </c>
+      <c r="M223" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
       <c r="B224" t="s">
         <v>20</v>
+      </c>
+      <c r="C224" t="s">
+        <v>64</v>
       </c>
       <c r="D224" t="s">
         <v>28</v>
@@ -4771,16 +6073,26 @@
       <c r="F224">
         <v>1998</v>
       </c>
-      <c r="H224" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H224">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I224" t="s">
+        <v>65</v>
+      </c>
+      <c r="M224" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>19</v>
       </c>
       <c r="B225" t="s">
         <v>20</v>
+      </c>
+      <c r="C225" t="s">
+        <v>64</v>
       </c>
       <c r="D225" t="s">
         <v>28</v>
@@ -4788,16 +6100,26 @@
       <c r="F225">
         <v>1999</v>
       </c>
-      <c r="H225" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H225">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I225" t="s">
+        <v>65</v>
+      </c>
+      <c r="M225" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
       <c r="B226" t="s">
         <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>64</v>
       </c>
       <c r="D226" t="s">
         <v>28</v>
@@ -4805,16 +6127,26 @@
       <c r="F226">
         <v>2000</v>
       </c>
-      <c r="H226" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H226">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I226" t="s">
+        <v>65</v>
+      </c>
+      <c r="M226" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
+      </c>
+      <c r="C227" t="s">
+        <v>64</v>
       </c>
       <c r="D227" t="s">
         <v>28</v>
@@ -4822,16 +6154,26 @@
       <c r="F227">
         <v>2001</v>
       </c>
-      <c r="H227" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H227">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I227" t="s">
+        <v>65</v>
+      </c>
+      <c r="M227" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
       <c r="B228" t="s">
         <v>20</v>
+      </c>
+      <c r="C228" t="s">
+        <v>64</v>
       </c>
       <c r="D228" t="s">
         <v>28</v>
@@ -4839,16 +6181,26 @@
       <c r="F228">
         <v>2002</v>
       </c>
-      <c r="H228" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H228">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I228" t="s">
+        <v>65</v>
+      </c>
+      <c r="M228" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
       <c r="B229" t="s">
         <v>20</v>
+      </c>
+      <c r="C229" t="s">
+        <v>64</v>
       </c>
       <c r="D229" t="s">
         <v>28</v>
@@ -4856,16 +6208,26 @@
       <c r="F229">
         <v>2003</v>
       </c>
-      <c r="H229" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H229">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I229" t="s">
+        <v>65</v>
+      </c>
+      <c r="M229" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>19</v>
       </c>
       <c r="B230" t="s">
         <v>20</v>
+      </c>
+      <c r="C230" t="s">
+        <v>64</v>
       </c>
       <c r="D230" t="s">
         <v>28</v>
@@ -4873,16 +6235,26 @@
       <c r="F230">
         <v>2004</v>
       </c>
-      <c r="H230" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H230">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I230" t="s">
+        <v>65</v>
+      </c>
+      <c r="M230" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>19</v>
       </c>
       <c r="B231" t="s">
         <v>20</v>
+      </c>
+      <c r="C231" t="s">
+        <v>64</v>
       </c>
       <c r="D231" t="s">
         <v>28</v>
@@ -4890,16 +6262,26 @@
       <c r="F231">
         <v>2005</v>
       </c>
-      <c r="H231" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H231">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I231" t="s">
+        <v>65</v>
+      </c>
+      <c r="M231" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
       <c r="B232" t="s">
         <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>64</v>
       </c>
       <c r="D232" t="s">
         <v>28</v>
@@ -4907,16 +6289,26 @@
       <c r="F232">
         <v>2006</v>
       </c>
-      <c r="H232" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H232">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I232" t="s">
+        <v>65</v>
+      </c>
+      <c r="M232" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>19</v>
       </c>
       <c r="B233" t="s">
         <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>64</v>
       </c>
       <c r="D233" t="s">
         <v>28</v>
@@ -4924,16 +6316,26 @@
       <c r="F233">
         <v>2007</v>
       </c>
-      <c r="H233" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H233">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I233" t="s">
+        <v>65</v>
+      </c>
+      <c r="M233" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>64</v>
       </c>
       <c r="D234" t="s">
         <v>28</v>
@@ -4941,16 +6343,26 @@
       <c r="F234">
         <v>2008</v>
       </c>
-      <c r="H234" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H234">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I234" t="s">
+        <v>65</v>
+      </c>
+      <c r="M234" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>19</v>
       </c>
       <c r="B235" t="s">
         <v>20</v>
+      </c>
+      <c r="C235" t="s">
+        <v>64</v>
       </c>
       <c r="D235" t="s">
         <v>28</v>
@@ -4958,16 +6370,26 @@
       <c r="F235">
         <v>2009</v>
       </c>
-      <c r="H235" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H235">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I235" t="s">
+        <v>65</v>
+      </c>
+      <c r="M235" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
       <c r="B236" t="s">
         <v>20</v>
+      </c>
+      <c r="C236" t="s">
+        <v>64</v>
       </c>
       <c r="D236" t="s">
         <v>28</v>
@@ -4975,16 +6397,26 @@
       <c r="F236">
         <v>2010</v>
       </c>
-      <c r="H236" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H236">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I236" t="s">
+        <v>65</v>
+      </c>
+      <c r="M236" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>19</v>
       </c>
       <c r="B237" t="s">
         <v>20</v>
+      </c>
+      <c r="C237" t="s">
+        <v>64</v>
       </c>
       <c r="D237" t="s">
         <v>28</v>
@@ -4992,16 +6424,26 @@
       <c r="F237">
         <v>2011</v>
       </c>
-      <c r="H237" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H237">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I237" t="s">
+        <v>65</v>
+      </c>
+      <c r="M237" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>19</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
+      </c>
+      <c r="C238" t="s">
+        <v>64</v>
       </c>
       <c r="D238" t="s">
         <v>28</v>
@@ -5009,16 +6451,26 @@
       <c r="F238">
         <v>2012</v>
       </c>
-      <c r="H238" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H238">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I238" t="s">
+        <v>65</v>
+      </c>
+      <c r="M238" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
       <c r="B239" t="s">
         <v>20</v>
+      </c>
+      <c r="C239" t="s">
+        <v>64</v>
       </c>
       <c r="D239" t="s">
         <v>28</v>
@@ -5026,16 +6478,26 @@
       <c r="F239">
         <v>2013</v>
       </c>
-      <c r="H239" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H239">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I239" t="s">
+        <v>65</v>
+      </c>
+      <c r="M239" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>19</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
+      </c>
+      <c r="C240" t="s">
+        <v>64</v>
       </c>
       <c r="D240" t="s">
         <v>28</v>
@@ -5043,16 +6505,26 @@
       <c r="F240">
         <v>2014</v>
       </c>
-      <c r="H240" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H240">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I240" t="s">
+        <v>65</v>
+      </c>
+      <c r="M240" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>19</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
+      </c>
+      <c r="C241" t="s">
+        <v>64</v>
       </c>
       <c r="D241" t="s">
         <v>28</v>
@@ -5060,16 +6532,26 @@
       <c r="F241">
         <v>2015</v>
       </c>
-      <c r="H241" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H241">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I241" t="s">
+        <v>65</v>
+      </c>
+      <c r="M241" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>19</v>
       </c>
       <c r="B242" t="s">
         <v>20</v>
+      </c>
+      <c r="C242" t="s">
+        <v>64</v>
       </c>
       <c r="D242" t="s">
         <v>28</v>
@@ -5077,16 +6559,26 @@
       <c r="F242">
         <v>2016</v>
       </c>
-      <c r="H242" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H242">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I242" t="s">
+        <v>65</v>
+      </c>
+      <c r="M242" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>19</v>
       </c>
       <c r="B243" t="s">
         <v>20</v>
+      </c>
+      <c r="C243" t="s">
+        <v>64</v>
       </c>
       <c r="D243" t="s">
         <v>28</v>
@@ -5094,16 +6586,26 @@
       <c r="F243">
         <v>2017</v>
       </c>
-      <c r="H243" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H243">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I243" t="s">
+        <v>65</v>
+      </c>
+      <c r="M243" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>19</v>
       </c>
       <c r="B244" t="s">
         <v>20</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
       </c>
       <c r="D244" t="s">
         <v>28</v>
@@ -5111,16 +6613,26 @@
       <c r="F244">
         <v>2018</v>
       </c>
-      <c r="H244" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H244">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I244" t="s">
+        <v>65</v>
+      </c>
+      <c r="M244" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>19</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
+      </c>
+      <c r="C245" t="s">
+        <v>64</v>
       </c>
       <c r="D245" t="s">
         <v>28</v>
@@ -5128,16 +6640,26 @@
       <c r="F245">
         <v>2019</v>
       </c>
-      <c r="H245" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H245">
+        <f t="shared" si="0"/>
+        <v>18694</v>
+      </c>
+      <c r="I245" t="s">
+        <v>65</v>
+      </c>
+      <c r="M245" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>19</v>
       </c>
       <c r="B246" t="s">
         <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>101</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
@@ -5146,15 +6668,18 @@
         <v>1990</v>
       </c>
       <c r="H246" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>19</v>
       </c>
       <c r="B247" t="s">
         <v>20</v>
+      </c>
+      <c r="C247" t="s">
+        <v>101</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
@@ -5163,15 +6688,18 @@
         <v>1991</v>
       </c>
       <c r="H247" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>19</v>
       </c>
       <c r="B248" t="s">
         <v>20</v>
+      </c>
+      <c r="C248" t="s">
+        <v>101</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
@@ -5180,15 +6708,18 @@
         <v>1992</v>
       </c>
       <c r="H248" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>19</v>
       </c>
       <c r="B249" t="s">
         <v>20</v>
+      </c>
+      <c r="C249" t="s">
+        <v>101</v>
       </c>
       <c r="D249" t="s">
         <v>29</v>
@@ -5197,15 +6728,18 @@
         <v>1993</v>
       </c>
       <c r="H249" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>19</v>
       </c>
       <c r="B250" t="s">
         <v>20</v>
+      </c>
+      <c r="C250" t="s">
+        <v>101</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
@@ -5214,15 +6748,18 @@
         <v>1994</v>
       </c>
       <c r="H250" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>19</v>
       </c>
       <c r="B251" t="s">
         <v>20</v>
+      </c>
+      <c r="C251" t="s">
+        <v>101</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
@@ -5231,15 +6768,18 @@
         <v>1995</v>
       </c>
       <c r="H251" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>19</v>
       </c>
       <c r="B252" t="s">
         <v>20</v>
+      </c>
+      <c r="C252" t="s">
+        <v>101</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
@@ -5248,15 +6788,18 @@
         <v>1996</v>
       </c>
       <c r="H252" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>19</v>
       </c>
       <c r="B253" t="s">
         <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>101</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
@@ -5265,15 +6808,18 @@
         <v>1997</v>
       </c>
       <c r="H253" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
       <c r="B254" t="s">
         <v>20</v>
+      </c>
+      <c r="C254" t="s">
+        <v>101</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
@@ -5282,15 +6828,18 @@
         <v>1998</v>
       </c>
       <c r="H254" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>19</v>
       </c>
       <c r="B255" t="s">
         <v>20</v>
+      </c>
+      <c r="C255" t="s">
+        <v>101</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
@@ -5299,15 +6848,18 @@
         <v>1999</v>
       </c>
       <c r="H255" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
+      </c>
+      <c r="C256" t="s">
+        <v>101</v>
       </c>
       <c r="D256" t="s">
         <v>29</v>
@@ -5316,7 +6868,7 @@
         <v>2000</v>
       </c>
       <c r="H256" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -5326,6 +6878,9 @@
       <c r="B257" t="s">
         <v>20</v>
       </c>
+      <c r="C257" t="s">
+        <v>101</v>
+      </c>
       <c r="D257" t="s">
         <v>29</v>
       </c>
@@ -5333,7 +6888,7 @@
         <v>2001</v>
       </c>
       <c r="H257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -5343,6 +6898,9 @@
       <c r="B258" t="s">
         <v>20</v>
       </c>
+      <c r="C258" t="s">
+        <v>101</v>
+      </c>
       <c r="D258" t="s">
         <v>29</v>
       </c>
@@ -5350,7 +6908,7 @@
         <v>2002</v>
       </c>
       <c r="H258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -5360,6 +6918,9 @@
       <c r="B259" t="s">
         <v>20</v>
       </c>
+      <c r="C259" t="s">
+        <v>101</v>
+      </c>
       <c r="D259" t="s">
         <v>29</v>
       </c>
@@ -5367,7 +6928,7 @@
         <v>2003</v>
       </c>
       <c r="H259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -5377,6 +6938,9 @@
       <c r="B260" t="s">
         <v>20</v>
       </c>
+      <c r="C260" t="s">
+        <v>101</v>
+      </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
@@ -5384,7 +6948,7 @@
         <v>2004</v>
       </c>
       <c r="H260" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -5394,6 +6958,9 @@
       <c r="B261" t="s">
         <v>20</v>
       </c>
+      <c r="C261" t="s">
+        <v>101</v>
+      </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
@@ -5401,7 +6968,7 @@
         <v>2005</v>
       </c>
       <c r="H261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -5411,6 +6978,9 @@
       <c r="B262" t="s">
         <v>20</v>
       </c>
+      <c r="C262" t="s">
+        <v>101</v>
+      </c>
       <c r="D262" t="s">
         <v>29</v>
       </c>
@@ -5418,7 +6988,7 @@
         <v>2006</v>
       </c>
       <c r="H262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -5428,6 +6998,9 @@
       <c r="B263" t="s">
         <v>20</v>
       </c>
+      <c r="C263" t="s">
+        <v>101</v>
+      </c>
       <c r="D263" t="s">
         <v>29</v>
       </c>
@@ -5435,7 +7008,7 @@
         <v>2007</v>
       </c>
       <c r="H263" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -5445,6 +7018,9 @@
       <c r="B264" t="s">
         <v>20</v>
       </c>
+      <c r="C264" t="s">
+        <v>101</v>
+      </c>
       <c r="D264" t="s">
         <v>29</v>
       </c>
@@ -5452,7 +7028,7 @@
         <v>2008</v>
       </c>
       <c r="H264" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -5462,6 +7038,9 @@
       <c r="B265" t="s">
         <v>20</v>
       </c>
+      <c r="C265" t="s">
+        <v>101</v>
+      </c>
       <c r="D265" t="s">
         <v>29</v>
       </c>
@@ -5469,7 +7048,7 @@
         <v>2009</v>
       </c>
       <c r="H265" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -5479,6 +7058,9 @@
       <c r="B266" t="s">
         <v>20</v>
       </c>
+      <c r="C266" t="s">
+        <v>101</v>
+      </c>
       <c r="D266" t="s">
         <v>29</v>
       </c>
@@ -5486,7 +7068,7 @@
         <v>2010</v>
       </c>
       <c r="H266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -5496,6 +7078,9 @@
       <c r="B267" t="s">
         <v>20</v>
       </c>
+      <c r="C267" t="s">
+        <v>101</v>
+      </c>
       <c r="D267" t="s">
         <v>29</v>
       </c>
@@ -5503,7 +7088,7 @@
         <v>2011</v>
       </c>
       <c r="H267" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -5513,6 +7098,9 @@
       <c r="B268" t="s">
         <v>20</v>
       </c>
+      <c r="C268" t="s">
+        <v>101</v>
+      </c>
       <c r="D268" t="s">
         <v>29</v>
       </c>
@@ -5520,7 +7108,7 @@
         <v>2012</v>
       </c>
       <c r="H268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -5530,6 +7118,9 @@
       <c r="B269" t="s">
         <v>20</v>
       </c>
+      <c r="C269" t="s">
+        <v>101</v>
+      </c>
       <c r="D269" t="s">
         <v>29</v>
       </c>
@@ -5537,7 +7128,7 @@
         <v>2013</v>
       </c>
       <c r="H269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -5547,6 +7138,9 @@
       <c r="B270" t="s">
         <v>20</v>
       </c>
+      <c r="C270" t="s">
+        <v>101</v>
+      </c>
       <c r="D270" t="s">
         <v>29</v>
       </c>
@@ -5554,7 +7148,7 @@
         <v>2014</v>
       </c>
       <c r="H270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -5564,6 +7158,9 @@
       <c r="B271" t="s">
         <v>20</v>
       </c>
+      <c r="C271" t="s">
+        <v>101</v>
+      </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
@@ -5571,7 +7168,7 @@
         <v>2015</v>
       </c>
       <c r="H271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -5581,6 +7178,9 @@
       <c r="B272" t="s">
         <v>20</v>
       </c>
+      <c r="C272" t="s">
+        <v>101</v>
+      </c>
       <c r="D272" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +7188,7 @@
         <v>2016</v>
       </c>
       <c r="H272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -5598,6 +7198,9 @@
       <c r="B273" t="s">
         <v>20</v>
       </c>
+      <c r="C273" t="s">
+        <v>101</v>
+      </c>
       <c r="D273" t="s">
         <v>29</v>
       </c>
@@ -5605,7 +7208,7 @@
         <v>2017</v>
       </c>
       <c r="H273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -5615,6 +7218,9 @@
       <c r="B274" t="s">
         <v>20</v>
       </c>
+      <c r="C274" t="s">
+        <v>101</v>
+      </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
@@ -5622,7 +7228,7 @@
         <v>2018</v>
       </c>
       <c r="H274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -5632,6 +7238,9 @@
       <c r="B275" t="s">
         <v>20</v>
       </c>
+      <c r="C275" t="s">
+        <v>101</v>
+      </c>
       <c r="D275" t="s">
         <v>29</v>
       </c>
@@ -5639,10 +7248,15 @@
         <v>2019</v>
       </c>
       <c r="H275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{910FA55F-0EB8-6D42-BA0C-E89CA2D68B56}"/>
+    <hyperlink ref="L7:L35" r:id="rId2" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{8E3C09FF-FA9E-6B4F-940A-F8D5A3781AAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>